--- a/2.2 Određivanje težina (N).xlsx
+++ b/2.2 Određivanje težina (N).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7AB51C-F402-4BBD-8EFB-771ECDB041FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989023E6-DBF3-49A8-99CD-BC20B4D3B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primjer 4.1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <r>
       <t>z</t>
@@ -333,13 +333,16 @@
   <si>
     <t>z-score (standardizirane vrijednosti)</t>
   </si>
+  <si>
+    <t>Bodovi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -563,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,6 +687,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1246,15 +1255,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1270,13 +1279,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="40" t="s">
         <v>4</v>
@@ -1284,7 +1293,7 @@
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1320,12 @@
       <c r="E6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f>C6*C5+D6*D5+E6*E5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1325,8 +1338,12 @@
       <c r="E7" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f>C7*C5+D7*D5+E7*E5</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
@@ -1338,6 +1355,24 @@
       </c>
       <c r="E8" s="13">
         <v>13</v>
+      </c>
+      <c r="G8">
+        <f>C8*C5+D8*D5+E8*E5</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="45">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
